--- a/chotot_oto_data.xlsx
+++ b/chotot_oto_data.xlsx
@@ -533,37 +533,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129223498.htm#px=SR-stickyad-[PO-1][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-huyen-binh-chanh-tp-ho-chi-minh/129439755.htm#px=SR-stickyad-[PO-1][PL-top]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bán Huyndai ELANTRA 2.0 GLS dkld 01/2020 , trắng</t>
+          <t>Morning 2017 có hỗ trợ góp, mua tiền mặt giảm 5tr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>439.000.000 đ</t>
+          <t>145.000.000 đ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>250000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -607,7 +607,11 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
@@ -618,32 +622,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/129376360.htm#px=SR-stickyad-[PO-2][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/127620923.htm#px=SR-stickyad-[PO-2][PL-top]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mercedes Benz E Class 2019 E200 Sport - 41000 km</t>
+          <t>VinFast VF3, ưu đãi đến 56 triệu đồng</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.199.000.000 đ</t>
+          <t>281.000.000 đ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E Class</t>
+          <t>VF3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -653,38 +657,26 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>41000</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -692,16 +684,8 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -711,32 +695,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129826004.htm#px=SR-stickyad-[PO-3][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/125009967.htm#px=SR-stickyad-[PO-3][PL-top]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Porsche Panamera 2016 4S Siêu Hiếm Option 1.5ty</t>
+          <t>VinFast Fadil, 1 chủ từ đầu, còn QUÁ MỚI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.799.000.000 đ</t>
+          <t>258.000.000 đ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Panamera</t>
+          <t>Fadil</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -751,12 +735,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -774,7 +758,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -782,7 +770,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -804,61 +792,77 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/123549450.htm#px=SR-stickyad-[PO-4][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-tan-binh-tp-ho-chi-minh/129870574.htm#px=SR-stickyad-[PO-4][PL-top]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>💥VinFast LIMO GREEN NHIỀU KM, 0% TB,GIAO XE NGAY💥</t>
+          <t>Mercedes-Benz Sprinter 311D 2011 Bạc 40964 km</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>719.000.000 đ</t>
+          <t>263.000.000 đ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dòng khác</t>
+          <t>Sprinter</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Van</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>40964</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -866,8 +870,16 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -877,32 +889,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-thanh-pho-thu-duc-tp-ho-chi-minh/129686886.htm#px=SR-stickyad-[PO-5][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129818411.htm#px=SR-stickyad-[PO-5][PL-top]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Honda CRV 2020 L 123800 km</t>
+          <t>Hyundai Elantra 2013 Bạc 158936 km</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>690.000.000 đ</t>
+          <t>275.000.000 đ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CR V</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -915,8 +927,16 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -929,7 +949,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>123800</t>
+          <t>15893</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -944,7 +964,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Hàn Quốc</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -966,32 +986,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129272997.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129272496.htm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VinFast VF5, mua pin, 1 chủ, còn QUÁ MỚI;</t>
+          <t>Kia Sorento 2020 2.4 GAT Premium - 78000 km</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>369.000.000 đ</t>
+          <t>550.000.000 đ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VF5 Plus</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1001,17 +1021,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Hatchback</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1026,14 +1046,10 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>78000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -1041,19 +1057,11 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Hàn Quốc</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1063,27 +1071,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-go-vap-tp-ho-chi-minh/129762278.htm#px=SR-special_display_ad-[PO-7][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/125009967.htm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mercedes-Benz C200 Exclusive 2020 Đen 34000 km</t>
+          <t>VinFast Fadil, 1 chủ từ đầu, còn QUÁ MỚI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>959.000.000 đ</t>
+          <t>258.000.000 đ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C Class</t>
+          <t>Fadil</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1103,7 +1111,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1123,7 +1131,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1138,7 +1146,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1160,32 +1168,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-binh-tp-ho-chi-minh/128996848.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129758731.htm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BMW 730Li 2011 - 98000 km</t>
+          <t>Mercedes GLC300 4matic AllNew 2024 Lướt 22.000km</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>520.000.000 đ</t>
+          <t>2.278.000.000 đ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7 Series</t>
+          <t>GLC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1200,7 +1208,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1220,7 +1228,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>98000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1235,14 +1243,10 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Nước khác</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
           <t>Có</t>
@@ -1257,32 +1261,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129868366.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129272997.htm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mercedes-Benz C180 Model 2020 Siêu Lướt</t>
+          <t>VinFast VF5, mua pin, 1 chủ, còn QUÁ MỚI;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>815.000.000 đ</t>
+          <t>369.000.000 đ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C Class</t>
+          <t>VF5 Plus</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1292,11 +1296,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Xăng</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>Điện</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -1309,10 +1321,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -1320,11 +1336,19 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1334,32 +1358,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129868351.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/125021638.htm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Toyota Vios 2024 1.5E CVT 17.000 km</t>
+          <t>💥VINFAST ECVAN GIAO XE SỚM NHẤT,CHI PHÍ THẤP, 0%TB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>440.000.000 đ</t>
+          <t>285.000.000 đ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vios</t>
+          <t>Dòng khác</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1369,35 +1393,31 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Xăng</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>17000</t>
-        </is>
-      </c>
+          <t>Điện</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Van</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1411,32 +1431,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-huyen-hoc-mon-tp-ho-chi-minh/120279215.htm#px=SR-special_display_ad-[PO-11][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/128941603.htm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VF6 BANK 90%, LÃI 4,8% CỐ ĐỊNH. 3 NĂM, BAO HS KHÓ</t>
+          <t>Mercedes GLC300 4Matic AllNew 2023 Lướt 11.000km</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>646.000.000 đ</t>
+          <t>2.278.000.000 đ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VF6</t>
+          <t>GLC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1446,7 +1466,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1459,13 +1479,29 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1474,7 +1510,11 @@
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1484,37 +1524,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129216438.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129455744.htm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Peugeot 2008 2022 AT màu trắng cực HOT</t>
+          <t>MG MG5 MT 2025 giá chỉ từ 320 triệu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>539.000.000 đ</t>
+          <t>320.000.000 đ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>MG4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1522,56 +1562,28 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SUV / Cross over</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Đức</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Trung Quốc</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1581,46 +1593,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129868246.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-go-vap-tp-ho-chi-minh/129765082.htm#px=SR-special_display_ad-[PO-17][PL-default]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kia Sedona 2019 Platinum D full dầu bstp chính chủ</t>
+          <t>Toyota Innova G 2006 xe gia đình xe zil toàn tập</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>735.000.000 đ</t>
+          <t>158.000.000 đ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sedona</t>
+          <t>Innova</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dầu</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>Xăng</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SUV / Cross over</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -1633,10 +1653,14 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>98998</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -1644,11 +1668,19 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1658,32 +1690,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129416496.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/129856426.htm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mercedes Benz S450L Luxury 2019 - 51999 km</t>
+          <t>Volkswagen Sharan 2017 2.0 Đen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.100.000.000 đ</t>
+          <t>445.000.000 đ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S Class</t>
+          <t>Sharan</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1698,12 +1730,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1718,7 +1750,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>51999</t>
+          <t>87500</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1733,7 +1765,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Nước khác</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1755,32 +1787,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/124920760.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129737881.htm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VF6 ĐƯA TRƯỚC 72TR NHẬN XE-ĐK FLATFORM-GRAB TRỌN</t>
+          <t>Mercedes GLC200 2020 Đen/Kem 56.000 km</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>661.000.000 đ</t>
+          <t>1.179.000.000 đ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VF6</t>
+          <t>GLC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1790,7 +1822,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1803,13 +1835,25 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>56000</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1818,7 +1862,11 @@
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1828,32 +1876,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-huyen-binh-chanh-tp-ho-chi-minh/129835263.htm</t>
+          <t>https://xe.chotot.com/mua-ban-huyen-cu-chi-tp-ho-chi-minh/129887384.htm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VinFast VF6 Eco xe sẵn, trả trước 55 triệu có xe</t>
+          <t>Honda City RS 2024 Trắng 16.000 km</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>55.000.000 đ</t>
+          <t>520.000.000 đ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VF6</t>
+          <t>City</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1863,12 +1911,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1876,13 +1924,29 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>16000</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1890,8 +1954,16 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1901,32 +1973,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-1-tp-ho-chi-minh/129028241.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129596750.htm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mercedes Benz C250 Exclusive 2018</t>
+          <t>MG MG5 Luxury Xám Mới 100%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>699.000.000 đ</t>
+          <t>495.000.000 đ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C Class</t>
+          <t>MG5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1939,56 +2011,28 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Sedan</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Nước khác</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Trung Quốc</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -1998,32 +2042,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129272496.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129550279.htm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kia Sorento 2020 2.4 GAT Premium - 78000 km</t>
+          <t>💥Xpander 2026 Premium Tặng 100% T.Bạ giá chỉ còn 👇</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>550.000.000 đ</t>
+          <t>578.000.000 đ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Xpander</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2046,30 +2090,18 @@
           <t>7</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>78000</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Hàn Quốc</t>
+          <t>Nước khác</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -2083,32 +2115,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/129868057.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/129785622.htm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lexus ES250 2016 Đen</t>
+          <t>Toyota Camry 2017 2.5Q Đen 109.000 km</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.100.000.000 đ</t>
+          <t>632.000.000 đ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lexus</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2121,8 +2153,16 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -2135,10 +2175,14 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>98000</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>109000</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -2146,11 +2190,19 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -2160,37 +2212,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-6-tp-ho-chi-minh/129709509.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129428574.htm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mitsubishi Attrage 2023 MT ( số sàn )</t>
+          <t>Mercedes C200 Exclusive 2020 Đen 30000 km</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>320.000.000 đ</t>
+          <t>959.000.000 đ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Attrage</t>
+          <t>C Class</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2220,7 +2272,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>51000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2235,7 +2287,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2257,37 +2309,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-huyen-binh-chanh-tp-ho-chi-minh/129742829.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129861326.htm#px=SR-stickyad-[PO-1][PL-top]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bán Matiz SE Chính chủ 2008, có trao đổi</t>
+          <t>Mercedes-Benz S450 Maybach 2020 39000 miles</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>49.900.000 đ</t>
+          <t>4.278.000.000 đ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Daewoo</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Matiz</t>
+          <t>S Class</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2298,7 +2350,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2313,12 +2365,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>&gt; 1 chủ</t>
+          <t>1 chủ</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2328,7 +2380,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2350,17 +2402,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-huyen-nha-be-tp-ho-chi-minh/121156263.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/125009967.htm#px=SR-stickyad-[PO-2][PL-top]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VF3 39TR NHẪN XE+GÓP 3TR6/THÁNG+BAO NỢ XẤU</t>
+          <t>VinFast Fadil, 1 chủ từ đầu, còn QUÁ MỚI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>280.000.000 đ</t>
+          <t>258.000.000 đ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2370,12 +2422,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VF3</t>
+          <t>Fadil</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2385,12 +2437,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2398,13 +2450,29 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2412,8 +2480,16 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -2423,32 +2499,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/129624154.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-6-tp-ho-chi-minh/129364941.htm#px=SR-stickyad-[PO-3][PL-top]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mercedes-Benz C180 2020 Trắng</t>
+          <t>2009 AT Máy Dầu - Siêu cọp - 1 Chủ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>699.000.000 đ</t>
+          <t>252.000.000 đ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C Class</t>
+          <t>Captiva</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2458,17 +2534,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Khác</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2483,10 +2559,14 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>140000</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -2494,11 +2574,19 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -2508,32 +2596,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/129256997.htm#px=SR-special_display_ad-[PO-24][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-1-tp-ho-chi-minh/129794714.htm#px=SR-stickyad-[PO-4][PL-top]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Porsche Macan FL model 2022 - Full Ppf Đen - Đỏ</t>
+          <t>Honda CRV 2024 L AWD 12.000km Đỏ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2.899.000.000 đ</t>
+          <t>1.180.000.000 đ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Macan</t>
+          <t>CR V</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2553,7 +2641,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2568,10 +2656,14 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>48000</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -2579,7 +2671,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2601,32 +2693,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-11-tp-ho-chi-minh/129154207.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-tan-binh-tp-ho-chi-minh/129861911.htm#px=SR-stickyad-[PO-5][PL-top]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mitsu Xpander premium  2025  siêu lướt chính hãng</t>
+          <t>Everest 2 cầu xe lướt lên đồ xịn bán tại Ford</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>627.000.000 đ</t>
+          <t>1.380.000.000 đ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Xpander</t>
+          <t>Everest</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2636,19 +2728,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Xăng</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>SUV / Cross over</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>Dầu</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -2661,14 +2745,10 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5500</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>22000</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -2676,7 +2756,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Nước khác</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -2690,32 +2770,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129756206.htm#px=SR-stickyad-[PO-1][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129887272.htm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Volvo S90L B6 2022 47.000 km</t>
+          <t>BMW X4 2019 Đen/Kem 69000 km</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.579.000.000 đ</t>
+          <t>1.350.000.000 đ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S90</t>
+          <t>X4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2730,7 +2810,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2750,7 +2830,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>47000</t>
+          <t>69000</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2765,7 +2845,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Nước khác</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2787,32 +2867,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/123549450.htm#px=SR-stickyad-[PO-2][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-11-tp-ho-chi-minh/126582249.htm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>💥VinFast LIMO GREEN NHIỀU KM, 0% TB,GIAO XE NGAY💥</t>
+          <t>Kia Sorento 2018 máy dầu 2WD 2.2 DATH - 103000 km</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>719.000.000 đ</t>
+          <t>509.000.000 đ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Dòng khác</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2822,7 +2902,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2835,13 +2915,29 @@
           <t>7</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>103000</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>&gt; 1 chủ</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2860,32 +2956,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129223498.htm#px=SR-stickyad-[PO-3][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129034790.htm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bán Huyndai ELANTRA 2.0 GLS dkld 01/2020 , trắng</t>
+          <t>Honda Civic 2019 1.8G  - 72000 km xe cọp</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>439.000.000 đ</t>
+          <t>500.000.000 đ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Civic</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2905,7 +3001,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2920,7 +3016,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>72000</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2931,7 +3027,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Thái Lan</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2945,32 +3041,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-3-tp-ho-chi-minh/129743044.htm#px=SR-stickyad-[PO-4][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/128697526.htm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FORD Fiesta 5 cửa sản xuất 2013</t>
+          <t>Toyota Vios 2018 1.5G - 33000 km xe gia đình</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>280.000.000 đ</t>
+          <t>335.000.000 đ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fiesta</t>
+          <t>Vios</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2985,12 +3081,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3005,14 +3101,10 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>59800</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>33000</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -3020,19 +3112,11 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Mỹ</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -3042,32 +3126,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/129491464.htm#px=SR-stickyad-[PO-5][PL-top]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129560767.htm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Honda CRV RS e:HEV 2024 Đỏ 12400 km</t>
+          <t>Porsche Macan Model 2022 Xám/Trắng Kem Siêu Hiếm</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.200.000.000 đ</t>
+          <t>2.899.000.000 đ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Porsche</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CR V</t>
+          <t>Macan</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3080,8 +3164,16 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SUV / Cross over</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -3094,14 +3186,10 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12400</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>52000</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -3109,7 +3197,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3131,17 +3219,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/121662509.htm#px=SR-special_display_ad-[PO-6][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-5-tp-ho-chi-minh/129879060.htm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VF9 BAO NỢ XẤU CÁ NHÂN-DOANH NGHIỆP VAY 90%</t>
+          <t>VinFast Limo Green đủ màu xe sẵn - hồ sơ sẵn</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.289.000.000 đ</t>
+          <t>714.040.000 đ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3151,7 +3239,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VF9</t>
+          <t>Limo Green</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3171,7 +3259,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Minivan (MPV)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3204,52 +3292,52 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/124681741.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129174381.htm</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jaguar XE 2015 3.0 full - 80000 km ngay chủ bản</t>
+          <t>Mazda 3 Luxury 2025 màu đỏ fa lê</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>579.000.000 đ</t>
+          <t>592.000.000 đ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>XE</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3264,7 +3352,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3279,7 +3367,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Nhật Bản</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3301,32 +3389,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/123794870.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129473510.htm</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chevrolet Captiva 2015 LTZ 2.4 - 67000 km</t>
+          <t>🚗 MG5 Luxury màu VÀNG – Chỉ 1 chiếc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>355.000.000 đ</t>
+          <t>450.000.000 đ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Captiva</t>
+          <t>MG5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3341,38 +3429,26 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>67000</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Trung Quốc</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -3386,32 +3462,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/125021638.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129483441.htm</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>💥VINFAST ECVAN GIAO XE SỚM NHẤT,CHI PHÍ THẤP, 0%TB</t>
+          <t>Mazda 2 2016 1.5 AT Hatchback 1 chủ từ đầu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>285.000.000 đ</t>
+          <t>298.000.000 đ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Dòng khác</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3421,26 +3497,38 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Van</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>106000</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3459,32 +3547,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129747096.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/127535917.htm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mitsubishi Pajero Sport 2015 số tự động 110000 km</t>
+          <t>Mercedes E200 Sport - ĐKLĐ 2020 - Up E63</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>340.000.000 đ</t>
+          <t>1.160.000.000 đ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>E Class</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3499,12 +3587,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3519,7 +3607,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>68000</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3534,7 +3622,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3556,32 +3644,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/129510407.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/129839680.htm#px=SR-special_display_ad-[PO-17][PL-default]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mercedes Benz C Class 2010 C200 CGI ( Giá 199tr )</t>
+          <t>Xe điện VinFast VF3 2025 Xám</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>199.000.000 đ</t>
+          <t>235.000.000 đ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C Class</t>
+          <t>VF3</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3591,17 +3679,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3616,10 +3704,14 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>99000</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+          <t>31000</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -3635,11 +3727,7 @@
           <t>Có</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -3649,27 +3737,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129824501.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129850497.htm</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Skoda Slavia Style</t>
+          <t>Vios G - 2.800Km - 2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>511.000.000 đ</t>
+          <t>519.000.000 đ</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Slavia</t>
+          <t>Vios</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3697,22 +3785,46 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Nước khác</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+          <t>Đang cập nhật</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -3722,32 +3834,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129867735.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129390909.htm</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BMW X1 2022 Nâu/Đen 55000 km</t>
+          <t>Bán Nissan Sunny 2018 số tự động, bản XV Premium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>989.000.000 đ</t>
+          <t>258.000.000 đ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>Sunny</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3760,8 +3872,16 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -3774,7 +3894,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>91000</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -3785,19 +3905,11 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -3807,27 +3919,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-go-vap-tp-ho-chi-minh/129735779.htm#px=SR-special_display_ad-[PO-14][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-oto-thanh-pho-thu-duc-tp-ho-chi-minh/127684222.htm#px=SR-special_display_ad-[PO-20][PL-default]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mitsubishi Xforce 2024 Premium  lướt chính hãng</t>
+          <t>Mazda 3 1.5L Sport Premium Vin 2024 mới 100%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>605.000.000 đ</t>
+          <t>644.000.000 đ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Xforce</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3847,7 +3959,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3855,46 +3967,22 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>32000</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Nước khác</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -3904,32 +3992,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/122554817.htm#px=SR-special_display_ad-[PO-15][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-go-vap-tp-ho-chi-minh/129031813.htm#px=SR-special_display_ad-[PO-22][PL-default]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VF5 – XE XỊN, GIÁ NHẸ, VAY DỄ, KIẾM TIỀN CỰC LỜI!</t>
+          <t>Mercedes Benz S450 4Matic Luxury Model 2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>495.000.000 đ</t>
+          <t>3.900.000.000 đ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VF5</t>
+          <t>S Class</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3939,12 +4027,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3952,18 +4040,30 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -3977,27 +4077,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129867684.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129857930.htm</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Audi A6 2021 45TFSI 38000 miles</t>
+          <t>Toyota Innova 2.0E số sàn 2021 gia đình ít sử dụng</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.499.000.000 đ</t>
+          <t>598.000.000 đ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>Innova</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4007,7 +4107,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4017,12 +4117,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Minivan (MPV)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4037,10 +4137,14 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>38000</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+          <t>54000</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -4048,7 +4152,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Nước khác</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4070,52 +4174,52 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/128651291.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129244733.htm</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Captiva LTZ dk t8.2015 số TĐ mới 90%</t>
+          <t>TRANSIT SVP SX T 12/2019 - 159000KM BẢO HÀNH 1 NĂM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>385.000.000 đ</t>
+          <t>430.000.000 đ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Captiva</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Minivan (MPV)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4130,7 +4234,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>67000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4148,16 +4252,8 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -4167,32 +4263,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129867653.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/124829327.htm</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mercedes-Benz GLS 450 2022 Đen/Kem 31000 miles</t>
+          <t>Ford Ranger 2025 XLS- giảm 100% trước bạ-xe sẵn</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.499.000.000 đ</t>
+          <t>707.000.000 đ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Ranger</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4202,51 +4298,35 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Xăng</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>Dầu</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Pick-up (bán tải)</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>31000</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -4256,32 +4336,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/129812316.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129230346.htm</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mitsubishi Grandis 2010 Vàng cát 125000 km</t>
+          <t>Porsche Macan 2021 - Đen/Đỏ Up Form GTS - 48.000km</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>315.000.000 đ</t>
+          <t>2.899.000.000 đ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Porsche</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Grandis</t>
+          <t>Macan</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4296,7 +4376,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Kiểu dáng khác</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4316,14 +4396,10 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>125000</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>48000</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -4331,7 +4407,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Nước khác</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4353,32 +4429,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129867600.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/129690121.htm#px=SR-special_display_ad-[PO-3][PL-default]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Porsche Taycan 4S Bạc ánh kim</t>
+          <t>VinFast VF3 2024 Trắng</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.399.000.000 đ</t>
+          <t>220.000.000 đ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Taycan</t>
+          <t>VF3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4391,8 +4467,16 @@
           <t>Điện</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SUV / Cross over</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -4405,10 +4489,14 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>20000</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -4416,7 +4504,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4438,37 +4526,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/129598993.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129823217.htm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mercedes Benz S Class 2019 S450L Luxury - 50000 km</t>
+          <t>Toyota Innova 2013 2.0E MT Bạc</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2.299.000.000 đ</t>
+          <t>249.000.000 đ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S Class</t>
+          <t>Innova</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4478,12 +4566,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4498,7 +4586,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -4531,32 +4619,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-binh-tp-ho-chi-minh/129108348.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129886872.htm</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Giá lăn bánh Mitsubishi Xforce + Ưu đãi mới</t>
+          <t>Jaguar XJL 2016 Đen Đk 2018</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>528.000.000 đ</t>
+          <t>1.899.000.000 đ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Xforce</t>
+          <t>XJ series</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4569,32 +4657,52 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>SUV / Cross over</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Nhật Bản</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+          <t>Đang cập nhật</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -4604,17 +4712,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/128932807.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886861.htm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>✅Ford Ranger MT 2020 Độ Raptor-39000km-Nhập Thái</t>
+          <t>Ford Ranger XLs 2022 4x2AT 45000 km</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>550.000.000 đ</t>
+          <t>579.000.000 đ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4629,12 +4737,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4664,12 +4772,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>&gt; 1 chủ</t>
+          <t>1 chủ</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4679,7 +4787,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4701,32 +4809,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129645212.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129852523.htm</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mercedes E300 AMG 2021 Trắng/Đen 57.000 km</t>
+          <t>Ford Raptor 2023 Xe Đẹp BH 1 Năm</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.658.000.000 đ</t>
+          <t>1.135.000.000 đ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>E Class</t>
+          <t>Ranger</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4736,19 +4844,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Xăng</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Sedan</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Dầu</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -4761,7 +4861,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>57000</t>
+          <t>51000</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -4772,15 +4872,11 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Nước khác</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -4790,32 +4886,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-phu-nhuan-tp-ho-chi-minh/122559063.htm#px=SR-special_display_ad-[PO-25][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129591876.htm</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VF9 PHIÊN BẢN MỚI TINH-LÁI ĐẲNG CẤP HƠN!</t>
+          <t>LONG ANH AUTO về Porsche Macan model 2022 👍</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.289.000.000 đ</t>
+          <t>2.899.000.000 đ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Porsche</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VF9</t>
+          <t>Macan</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4825,7 +4921,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4835,25 +4931,49 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+          <t>Đức</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -4863,37 +4983,37 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/128651632.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886832.htm</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Inova E 2.0 SX 2020 số sàn 1 chủ từ đầu.  Mới 85%</t>
+          <t>Vinfast Lux A 2021 Base 50.000km Đen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>478.000.000 đ</t>
+          <t>499.000.000 đ</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Innova</t>
+          <t>Lux A2.0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4903,12 +5023,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Minivan (MPV)</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4923,7 +5043,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>78000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4960,32 +5080,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/124487217.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129851742.htm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nissan Sunny 2016 XV - 90000 km</t>
+          <t>VIOS G 2025-odo chuẩn 2.857 bao test(GIÁ CÒN GIẢM)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>245.000.000 đ</t>
+          <t>520.000.000 đ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Vios</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -5020,10 +5140,14 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -5034,8 +5158,16 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -5045,52 +5177,52 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129560767.htm</t>
+          <t>https://xe.chotot.com/mua-ban-huyen-binh-chanh-tp-ho-chi-minh/129886788.htm</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Porsche Macan Model 2022 Xám/Trắng Kem Siêu Hiếm</t>
+          <t>Ford Transit 2013 16 chỗ Vàng cát</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2.899.000.000 đ</t>
+          <t>245.000.000 đ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Macan</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Pick-up (bán tải)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5105,10 +5237,14 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>52000</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -5116,7 +5252,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Mỹ</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5138,32 +5274,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-10-tp-ho-chi-minh/129648936.htm#px=SR-special_display_ad-[PO-4][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/128456632.htm</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Porsche Panamera 2018 - Odo 7v5 Km . Giá : 3ty3xx</t>
+          <t>5 chổ số tự động Toyota Wigo 2021 đi 29.000Km zin</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3.379.000.000 đ</t>
+          <t>343.000.000 đ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Panamera</t>
+          <t>Wigo</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5178,12 +5314,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5198,10 +5334,14 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>75000</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+          <t>29000</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -5209,7 +5349,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Ấn Độ</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5231,32 +5371,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129797368.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129792094.htm</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mercedes C200 Avantgarde Plus 2022 ( XHD)</t>
+          <t>INNOVA 2.0G 2020 AT PHÔM MỚI 76000KM BẢO HÀNH 1NAM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.359.000.000 đ</t>
+          <t>595.000.000 đ</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>C Class</t>
+          <t>Innova</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5269,8 +5409,16 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Minivan (MPV)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -5283,7 +5431,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>76000</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5298,19 +5446,11 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -5320,70 +5460,66 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-huyen-hoc-mon-tp-ho-chi-minh/129456562.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/126856936.htm</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Toyota Vios màu Trắng 2019 1.5 MT</t>
+          <t>Ford Everest 2025- ưu đãi cực lớn T12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>290.000.000 đ</t>
+          <t>1.099.000.000 đ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Vios</t>
+          <t>Everest</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Xăng</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>137446</t>
-        </is>
-      </c>
+          <t>Dầu</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SUV / Cross over</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
+          <t>Thái Lan</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
@@ -5397,47 +5533,47 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129430927.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/128741189.htm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ford Ranger 2021 XLS 2.2L 4x2 MT - 79000 km</t>
+          <t>Mercedes E200 Model 2020 - Đen Nâu - 62.000 km</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>530.000.000 đ</t>
+          <t>1.039.000.000 đ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>E Class</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Pick-up (bán tải)</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5457,7 +5593,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>62000</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5472,7 +5608,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5494,32 +5630,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/127535917.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-binh-tan-tp-ho-chi-minh/129566042.htm#px=SR-special_display_ad-[PO-16][PL-default]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mercedes E200 Sport - ĐKLĐ 2020 - Up E63</t>
+          <t>VinFast Limo Green 7 chỗ trả trước 72tr nhận xe</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.160.000.000 đ</t>
+          <t>704.040.000 đ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>E Class</t>
+          <t>Limo Green</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5529,59 +5665,35 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Kiểu dáng khác</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>68000</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>&gt; 1 chủ</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Nước khác</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -5591,32 +5703,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129867239.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/129493910.htm#px=SR-special_display_ad-[PO-17][PL-default]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Toyota Innova 2017 2.0G Đồng ánh kim</t>
+          <t>KIA Carnival Signature 2022 2.2 DẦU 45.000 km</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>495.000.000 đ</t>
+          <t>1.229.000.000 đ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Innova</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5626,7 +5738,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5636,7 +5748,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5651,10 +5763,14 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>104000</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -5684,32 +5800,32 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129867216.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129424327.htm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kia Sedona 2019 2.2 DAT Luxury - 170000 km</t>
+          <t>Ford Everest Limited 2011 số tự động máy dầu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>700.000.000 đ</t>
+          <t>292.000.000 đ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sedona</t>
+          <t>Everest</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5724,7 +5840,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Minivan (MPV)</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5744,7 +5860,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>170000</t>
+          <t>91000</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5763,11 +5879,7 @@
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -5777,32 +5889,32 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/129446474.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129730070.htm</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Porsche Macan FL Model 2022 . Đen - Kem . Odo 5v8</t>
+          <t>Ford Ranger XLS 2025 - Xe lướt 12000 km</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2.899.000.000 đ</t>
+          <t>705.000.000 đ</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Macan</t>
+          <t>Ranger</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5812,12 +5924,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Pick-up (bán tải)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5837,7 +5949,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>58000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -5848,7 +5960,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -5870,37 +5982,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129867129.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129886662.htm</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chana 8 chỗ 1.0 Bạc</t>
+          <t>Toyota Innova 2015 2.0G Đồng 125.000km</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>32.000.000 đ</t>
+          <t>385.000.000 đ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Dòng khác</t>
+          <t>Innova</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5908,7 +6020,11 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Minivan (MPV)</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>8</t>
@@ -5926,10 +6042,14 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
+          <t>125000</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -5937,12 +6057,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Trung Quốc</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5959,32 +6079,32 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-8-tp-ho-chi-minh/129867121.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129410422.htm</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mercedes-Benz GLA45S AMG 2023 Trắng</t>
+          <t>Cross 1.8V -1 chủ - xe đẹp tại hãng (GIÁ CÒN GIẢM)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.699.000.000 đ</t>
+          <t>695.000.000 đ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CLA Class</t>
+          <t>Corolla Cross</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5997,7 +6117,11 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>SUV / Cross over</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
           <t>5</t>
@@ -6015,10 +6139,14 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>53036</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -6026,7 +6154,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
+          <t>Thái Lan</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -6048,27 +6176,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129413040.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/129857846.htm</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Volkswagen Viloran Luxury 2025 Lướt 7.000km</t>
+          <t>Toyota Vios G 2025 đi 2.800Km mới 99.9% rẻ hơn mới</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2.238.000.000 đ</t>
+          <t>519.000.000 đ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Viloran</t>
+          <t>Vios</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6088,12 +6216,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Van</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6108,7 +6236,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6145,32 +6273,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129867060.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-thanh-pho-thu-duc-tp-ho-chi-minh/129752960.htm#px=SR-special_display_ad-[PO-5][PL-default]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ford EcoSport 2020 1.5L Titanium AT - 60000 km</t>
+          <t>VF6 ECO XE SẴN GIAO NGAY – FULL SERVICE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>400.000.000 đ</t>
+          <t>639.000.000 đ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EcoSport</t>
+          <t>VF6</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6180,7 +6308,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6193,30 +6321,18 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
@@ -6230,17 +6346,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-12-tp-ho-chi-minh/129790270.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/129235656.htm</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Toyota Camry 1990 Xám</t>
+          <t>Toyota Camry 2022 2.5 Q - 59000 km</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>68.000.000 đ</t>
+          <t>1.130.000.000 đ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6255,7 +6371,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6268,8 +6384,16 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -6282,10 +6406,14 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
+          <t>59000</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -6293,11 +6421,19 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Nhật Bản</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+          <t>Thái Lan</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -6307,32 +6443,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-6-tp-ho-chi-minh/129867015.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129651012.htm</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chevrolet Aveo 2016 bản LTZ 1.5 AT - 105000 km</t>
+          <t>Ford Ranger XLS AT 4x4 chỉ 690tr bao rút hồ sơ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>199.000.000 đ</t>
+          <t>690.000.000 đ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Aveo</t>
+          <t>Ranger</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6342,17 +6478,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pick-up (bán tải)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Khác</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6367,7 +6503,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>67000</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -6378,11 +6514,19 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -6392,32 +6536,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129802842.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129230525.htm</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ford Ranger 2020 WILDTRAK 2.0L 4x4 AT - 78000 km</t>
+          <t>Porsche Panamera Model 2018 - Đỏ/Be - chất xe đẹp</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>720.000.000 đ</t>
+          <t>2.938.000.000 đ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Porsche</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>Panamera</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6427,17 +6571,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Pick-up (bán tải)</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6452,14 +6596,10 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>78000</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -6467,7 +6607,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -6489,27 +6629,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/124829327.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-binh-tan-tp-ho-chi-minh/129566434.htm#px=SR-special_display_ad-[PO-9][PL-default]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ford Ranger 2025 XLS- giảm 100% trước bạ-xe sẵn</t>
+          <t>VINFAST VF5 TRẢ TRƯỚC 0 ĐỒNG, ĐỦ MÀU,NHIỀU ƯU ĐÃI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>707.000.000 đ</t>
+          <t>495.840.000 đ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>VF5</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6524,12 +6664,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Pick-up (bán tải)</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6548,7 +6688,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Nước khác</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
@@ -6562,32 +6702,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/129415792.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/127926063.htm#px=SR-special_display_ad-[PO-10][PL-default]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mercedes Benz C Class 2019 C300 AMG - 70000 km</t>
+          <t>Audi A4 model 2015 màu đen cực ngầu siêu đẹp</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>950.000.000 đ</t>
+          <t>489.000.000 đ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>C Class</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6622,7 +6762,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6637,7 +6777,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -6659,32 +6799,32 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129230346.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886589.htm</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Porsche Macan 2021 - Đen/Đỏ Up Form GTS - 48.000km</t>
+          <t>Mercedes-Benz C180 2019 Xanh</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2.899.000.000 đ</t>
+          <t>800.000.000 đ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Macan</t>
+          <t>C Class</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6699,12 +6839,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Khác</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6719,10 +6859,14 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>48000</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -6730,19 +6874,11 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Đức</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -6752,32 +6888,32 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129102033.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886558.htm</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Bán ford focus Sản xuất 2018 bản Titanium cao cấp</t>
+          <t>Honda City Top Trắng 5 chỗ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>359.000.000 đ</t>
+          <t>370.000.000 đ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Focus</t>
+          <t>City</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6790,11 +6926,7 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Sedan</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>5</t>
@@ -6812,14 +6944,10 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>79000</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>&gt; 1 chủ</t>
-        </is>
-      </c>
+          <t>800000</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -6827,7 +6955,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
@@ -6841,32 +6969,32 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-10-tp-ho-chi-minh/129527694.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/122558686.htm#px=SR-special_display_ad-[PO-13][PL-default]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BMW X7 Sx  Model  2021 xDrive40i ( Xám - NT Nâu )</t>
+          <t>VF9 MIỄN PHÍ SẠC 2NĂM-MIỄN PHÍ 100% THUẾ-BAO HS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3.999.000.000 đ</t>
+          <t>1.289.000.000 đ</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>VF9</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6876,7 +7004,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6886,45 +7014,25 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>68000</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Nước khác</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -6934,32 +7042,32 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-huyen-binh-chanh-tp-ho-chi-minh/129835715.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129576801.htm</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VinFast VF3 đỏ giao ngay trả trước 15 triệu có xe</t>
+          <t>Toyota Camry 2010 Đen Đã sử dụng</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15.000.000 đ</t>
+          <t>355.000.000 đ</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VF3</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6969,26 +7077,42 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>115000</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>&gt; 1 chủ</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6996,8 +7120,16 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7007,32 +7139,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129746170.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129618076.htm</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EVEREST 2.2L 2016 TITANIUM 1 CẦU BH 1 NĂM</t>
+          <t>Suzukia Swif 1.2AT 2022_ chuẩn 46.000km</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>648.000.000 đ</t>
+          <t>508.000.000 đ</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Everest</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -7042,17 +7174,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7067,7 +7199,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>63000</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7082,11 +7214,19 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+          <t>Đang cập nhật</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7096,17 +7236,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129859405.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129102033.htm</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>✅Ford Ranger 2013 XLT 2.2 4X4 MT 2 Cầu- 118000 km</t>
+          <t>Bán ford focus Sản xuất 2018 bản Titanium cao cấp</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>375.000.000 đ</t>
+          <t>359.000.000 đ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7116,27 +7256,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>Focus</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Pick-up (bán tải)</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7156,10 +7296,14 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>118000</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
+          <t>79000</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>&gt; 1 chủ</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -7167,19 +7311,11 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7189,32 +7325,32 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-1-tp-ho-chi-minh/129759577.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-1-tp-ho-chi-minh/129341521.htm</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KIA Morning GT Line 2022 14.000 km Xám</t>
+          <t>Xpander Cross NEW / Giảm 100% TB /Xe sẵn giao ngay</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>374.000.000 đ</t>
+          <t>627.000.000 đ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Xpander Cross</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -7229,54 +7365,30 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Hatchback</t>
+          <t>Minivan (MPV)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>14000</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Nước khác</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7286,32 +7398,32 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-1-tp-ho-chi-minh/129759404.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129886474.htm</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Vinfast VF8 ECO 2023 Trắng</t>
+          <t>XPANDER 2025 PREMIUM 8200KM BẢO HÀNH HÃNG 12/2028</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>720.000.000 đ</t>
+          <t>608.000.000 đ</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VF8</t>
+          <t>Xpander</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -7321,7 +7433,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7331,7 +7443,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7346,7 +7458,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>8200</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7361,19 +7473,11 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Nước khác</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7383,37 +7487,37 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129421087.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-12-tp-ho-chi-minh/129601377.htm#px=SR-special_display_ad-[PO-19][PL-default]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Volkswagen T-Cross Elegance 2022 Lướt 27.000 km</t>
+          <t>Toyota Innova E 2020 137000 km</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>568.000.000 đ</t>
+          <t>445.000.000 đ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>T-Cross</t>
+          <t>Innova</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -7421,14 +7525,10 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>SUV / Cross over</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7443,14 +7543,10 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27000</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>137000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -7458,15 +7554,11 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Ấn Độ</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7476,32 +7568,32 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129866843.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129327584.htm</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hyundai Creta 2024 Đặc Biệt Full Option 58.000km</t>
+          <t>Mercedes GLC300 4Matic - Model 2020 - Đỏ/Kem</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>599.000.000 đ</t>
+          <t>1.099.000.000 đ</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>GLC</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7514,8 +7606,16 @@
           <t>Xăng</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>SUV / Cross over</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -7528,7 +7628,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>58000</t>
+          <t>68000</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -7539,11 +7639,19 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7553,17 +7661,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/128234616.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-thanh-pho-thu-duc-tp-ho-chi-minh/129829583.htm#px=SR-special_display_ad-[PO-1][PL-default]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mercedes Benz GLE 400 4Matic Coupe fix nhanh</t>
+          <t>💯 Mercedes-Benz C200 Exlusive Đen/Đen 2020</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1.230.000.000 đ</t>
+          <t>935.000.000 đ</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -7573,12 +7681,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GLE Class</t>
+          <t>C Class</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7593,12 +7701,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Khác</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7613,14 +7721,10 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>86000</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>62000</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -7628,19 +7732,11 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Mỹ</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7650,32 +7746,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129802713.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-tan-binh-tp-ho-chi-minh/128850431.htm</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ford Ranger 2020 WILDTRAK 2.0L 4x4 AT CHÍNH HÃNG</t>
+          <t>Audi Q5 bản Full nhập mới 2012 một chủ rất mới</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>720.000.000 đ</t>
+          <t>370.000.000 đ</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7685,12 +7781,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Pick-up (bán tải)</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7710,7 +7806,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7725,7 +7821,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -7747,32 +7843,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/126856936.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/127130458.htm#px=SR-special_display_ad-[PO-3][PL-default]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ford Everest 2025- ưu đãi cực lớn T12</t>
+          <t>Cayenne Coupe Model 2023 màu trắng nt đỏ siêu đẹp</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.099.000.000 đ</t>
+          <t>4.888.000.000 đ</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Porsche</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Everest</t>
+          <t>Cayenne</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7782,7 +7878,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7792,25 +7888,49 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>32000</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+          <t>Đức</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7820,32 +7940,32 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129661096.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-7-tp-ho-chi-minh/125117633.htm#px=SR-special_display_ad-[PO-4][PL-default]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mercedes GLC300 4Matic Model 2022 - Trắng/Đen</t>
+          <t>BMW 3 Series 2015 320i - 45000 km</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.599.000.000 đ</t>
+          <t>515.000.000 đ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>GLC</t>
+          <t>3 Series</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7860,12 +7980,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7880,7 +8000,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>51000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7895,19 +8015,11 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Đức</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -7917,17 +8029,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-binh-tan-tp-ho-chi-minh/129566042.htm#px=SR-special_display_ad-[PO-15][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-go-vap-tp-ho-chi-minh/120372017.htm</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VinFast Limo Green 7 chỗ trả trước 72tr nhận xe</t>
+          <t>VINFAST VF7 -150TR NHẬN XE, HỖ TRỢ GÓP 85%,BAO HS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>704.040.000 đ</t>
+          <t>742.000.000 đ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7937,7 +8049,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Limo Green</t>
+          <t>VF7</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7957,12 +8069,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Kiểu dáng khác</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -7976,7 +8088,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Nước khác</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
@@ -7990,42 +8102,42 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129866758.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129629448.htm</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mazda CX5 Luxury 2023 lên full bản Premium</t>
+          <t>Toyota Fortuner 2018 MT 130000 km</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>690.000.000 đ</t>
+          <t>689.000.000 đ</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CX 5</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Dầu</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8035,7 +8147,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -8050,12 +8162,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>69900</t>
+          <t>130000</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>1 chủ</t>
+          <t>&gt; 1 chủ</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -8087,32 +8199,32 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-tan-phu-tp-ho-chi-minh/129826004.htm#px=SR-special_display_ad-[PO-17][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886356.htm</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Porsche Panamera 2016 4S Siêu Hiếm Option 1.5ty</t>
+          <t>Chevrolet Cruze 2018 LTZ Đỏ 67000 km đẹp tắt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2.799.000.000 đ</t>
+          <t>345.000.000 đ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Porsche</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Panamera</t>
+          <t>Cruze</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -8132,7 +8244,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8147,7 +8259,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67000</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -8158,19 +8270,11 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Đức</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Đang cập nhật</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -8180,32 +8284,32 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/129244891.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886308.htm</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SOLATY 2018 CHUYÊN CHỞ CBCNV 185.000KM BH 1 NĂM</t>
+          <t>Toyota Innova 2006 G Đen</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>650.000.000 đ</t>
+          <t>165.000.000 đ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Solati</t>
+          <t>Innova</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -8215,7 +8319,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8225,7 +8329,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8240,14 +8344,10 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>185000</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -8258,16 +8358,8 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -8277,12 +8369,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-huyen-binh-chanh-tp-ho-chi-minh/129866685.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886301.htm</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ford Transit 2017 Luxury - 160 km</t>
+          <t>Ford Ecosport 2015 Titanium 46.000km rin đẹppp</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8297,32 +8389,32 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>EcoSport</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Kiểu dáng khác</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8337,7 +8429,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>46000</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -8352,7 +8444,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
@@ -8366,32 +8458,32 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-go-vap-tp-ho-chi-minh/129006196.htm#px=SR-special_display_ad-[PO-20][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129743079.htm</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mercedes Benz Maybach 2018 S450 4Matic - 36000 km</t>
+          <t>KIA CARENS 1.4T SIGNATURE 7 GHẾ 2022 XE GIA ĐÌNH</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3.350.000.000 đ</t>
+          <t>668.000.000 đ</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Maybach</t>
+          <t>Carens</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -8406,12 +8498,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8426,10 +8518,14 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>36000</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -8437,11 +8533,19 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -8451,12 +8555,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-huyen-binh-chanh-tp-ho-chi-minh/129866685.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-12-tp-ho-chi-minh/129685061.htm#px=SR-special_display_ad-[PO-11][PL-default]</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ford Transit 2017 Luxury - 160 km</t>
+          <t>Ford Ecosport 2017 Titanium Đỏ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -8471,7 +8575,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>EcoSport</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -8481,24 +8585,16 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Số sàn</t>
+          <t>Tự động</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dầu</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Kiểu dáng khác</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Xăng</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -8511,14 +8607,10 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>93000</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -8526,7 +8618,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
@@ -8540,32 +8632,32 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-quan-go-vap-tp-ho-chi-minh/129006196.htm#px=SR-special_display_ad-[PO-2][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129886267.htm</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mercedes Benz Maybach 2018 S450 4Matic - 36000 km</t>
+          <t>Mazda 3 Luxury 2024 Màu Đen Chạy Lướt 18.000km</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3.350.000.000 đ</t>
+          <t>598.000.000 đ</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Maybach</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -8585,7 +8677,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8600,7 +8692,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>36000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -8611,7 +8703,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Đang cập nhật</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
@@ -8625,32 +8717,32 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129866647.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-11-tp-ho-chi-minh/103130198.htm</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ford Everest Sport 2.0L 4x2 AT 2023 - 36136 km</t>
+          <t>Kia Sportage 2025 - Ưu đãi 30 triệu + bảo hiểm</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.089.000.000 đ</t>
+          <t>779.000.000 đ</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Everest</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8660,7 +8752,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dầu</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8670,44 +8762,24 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>36136</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
@@ -8718,32 +8790,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-thanh-pho-thu-duc-tp-ho-chi-minh/129865905.htm#px=SR-special_display_ad-[PO-4][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-7-tp-ho-chi-minh/129560590.htm</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Honda CR V 2024 L AWD - 43000 km</t>
+          <t>Porsche Panamera Model 2019 Trắng Ngà/Nội thất đỏ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.140.000.000 đ</t>
+          <t>3.379.000.000 đ</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Porsche</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CR V</t>
+          <t>Panamera</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8758,12 +8830,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>SUV / Cross over</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8778,7 +8850,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -8789,7 +8861,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -8811,32 +8883,32 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/129838913.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-quan-tan-phu-tp-ho-chi-minh/127525202.htm#px=SR-special_display_ad-[PO-15][PL-default]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Toyota Corolla Cross 2022 1.8 HEV 24000 km</t>
+          <t>Porsche Panamera 99000km.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>745.000.000 đ</t>
+          <t>890.000.000 đ</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Porsche</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Corolla Cross</t>
+          <t>Panamera</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8846,17 +8918,13 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Động cơ Hybrid</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>SUV / Cross over</t>
-        </is>
-      </c>
+          <t>Xăng</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8871,14 +8939,10 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>24000</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>99000</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -8886,14 +8950,10 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Đức</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
           <t>Có</t>
@@ -8908,32 +8968,32 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-binh-thanh-tp-ho-chi-minh/127863524.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/128688261.htm</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Audi A7 2014 3.0 TFSI Quattro - 85000 km</t>
+          <t>💯PEUGEOT 2008GT-Line TRẮNG 2023 CỰC ĐẸP</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>738.000.000 đ</t>
+          <t>665.000.000 đ</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8948,12 +9008,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8968,10 +9028,14 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>85000</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
+          <t>22000</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -8979,7 +9043,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Nước khác</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr"/>
@@ -8993,32 +9057,32 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-binh-tp-ho-chi-minh/129144884.htm</t>
+          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129476470.htm</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Stormtrak 2024 Nhập Thái Lan – FULL 200TR ĐỒ TỐT</t>
+          <t>Mercedes GLC 200 2022 Trắng giá tốt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1.030.000.000 đ</t>
+          <t>1.330.000.000 đ</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>GLC</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9028,19 +9092,11 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dầu</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Pick-up (bán tải)</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Xăng</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>&gt; 1 tấn</t>
@@ -9053,14 +9109,10 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
           <t>Đã sử dụng</t>
@@ -9068,7 +9120,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Thái Lan</t>
+          <t>Đang cập nhật</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
@@ -9082,42 +9134,42 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-oto-thanh-pho-thu-duc-tp-ho-chi-minh/129752960.htm#px=SR-special_display_ad-[PO-9][PL-default]</t>
+          <t>https://xe.chotot.com/mua-ban-quan-binh-tan-tp-ho-chi-minh/128348814.htm</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VF6 ECO XE SẴN GIAO NGAY – FULL SERVICE</t>
+          <t>2005 SS - 180000 km</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>639.000.000 đ</t>
+          <t>85.000.000 đ</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>VF6</t>
+          <t>Jolie</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Tự động</t>
+          <t>Số sàn</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Điện</t>
+          <t>Xăng</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9127,16 +9179,32 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>&gt; 1 tấn</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>&gt; 2 tấn</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>180000</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>1 chủ</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Mới</t>
+          <t>Đã sử dụng</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -9144,8 +9212,16 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
       <c r="S99" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -9155,32 +9231,32 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-quan-tan-phu-tp-ho-chi-minh/129802989.htm</t>
+          <t>https://xe.chotot.com/mua-ban-quan-5-tp-ho-chi-minh/129442705.htm</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ford EcoSport 2020 1.5L Titanium AT - 47000 km</t>
+          <t>VinFast VF6 2025 vf6 eco trắng xe sẵn- hồ sơ sẵn</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>475.000.000 đ</t>
+          <t>661.440.000 đ</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EcoSport</t>
+          <t>VF6</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -9190,7 +9266,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9203,29 +9279,13 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>47000</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>1 chủ</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -9233,16 +9293,8 @@
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
@@ -9252,32 +9304,32 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://xe.chotot.com/mua-ban-thanh-pho-thu-duc-tp-ho-chi-minh/129758732.htm</t>
+          <t>https://xe.chotot.com/mua-ban-oto-huyen-nha-be-tp-ho-chi-minh/120336188.htm#px=SR-special_display_ad-[PO-1][PL-default]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ford Focus 2014 Đỏ 83.000 km</t>
+          <t>VF6 DUYỆT VAY 90% – KHÔNG CẦN CHỨNG MINH THU NHẬP</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>295.000.000 đ</t>
+          <t>646.000.000 đ</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Focus</t>
+          <t>VF6</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -9287,12 +9339,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Xăng</t>
+          <t>Điện</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Hatchback</t>
+          <t>SUV / Cross over</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -9300,46 +9352,22 @@
           <t>5</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>&gt; 1 tấn</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>&gt; 2 tấn</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>83000</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>&gt; 1 chủ</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Đã sử dụng</t>
+          <t>Mới</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Mỹ</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>Bảo hành hãng</t>
